--- a/medicine/Enfance/Freda_Hurt/Freda_Hurt.xlsx
+++ b/medicine/Enfance/Freda_Hurt/Freda_Hurt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Freda Hurt, pseudonyme de Mary Elizabeth Hurt, née le 14 juin 1911 à Bromley, dans le Kent, et morte en 1999 dans la même ville, devenue entre-temps un district du Grand Londres, est un écrivain britannique, auteur de roman policier et d’ouvrages de littérature d'enfance et de jeunesse. Les éditions originales anglaises de ses œuvres porte le nom Freda Mary Hurt, mais ses éditeurs français ont choisi la signature Freda Hurt.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Infirmière-chef d’un département hospitalier pour enfants, elle décide de se lancer au début des années 1950 dans l’écriture de littérature d’enfance et de jeunesse.
 En 1953, elle crée le détective M. Twink, un chat noir aux remarquables yeux bleus qui lui viennent de ses ancêtres siamois.  Ce félin limier habite avec un poète et assiste le sergent Boffer, un chien collie, qui aide le policier du village, son maître, à résoudre des énigmes policières.  Illustrée par Nina Scott Langlay, la série obtient un succès immédiat.  En marge, Freda Hurt fait paraître plusieurs autres romans jeunesse et le cycle des aventures du jeune Andy.
@@ -546,8 +560,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Série Inspecteur Herbert Broom
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série Inspecteur Herbert Broom</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 The Body at Busman’s Hollow (1959)
 Death by Bequest (1960)
 Sweet Death (1961)
@@ -564,8 +587,47 @@
 Dark Design (1972)
 Return to Terror (1974)
 Fatal Fortune (1975)
-Littérature d’enfance et de jeunesse
-Série Mr. Twink
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Freda_Hurt</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Freda_Hurt</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Littérature d’enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série Mr. Twink</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Clever Mr. Twink (1953)
 Mr. Twin Takes Charge (1954)
 Mr. Twin Finds Out (1956)
@@ -575,7 +637,47 @@
 Mr. Twin &amp; the Jungle Garden (1960)
 Mr. Twin Finds a Family (1961)
 Mr. Twin &amp; the Cat Thief (1962)
-Série Andy
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Freda_Hurt</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Freda_Hurt</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Littérature d’enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Série Andy</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Andy in Trouble (1953)
 Andy Takes the Lead (1955)
 Andy Gets the Blame (1956)
@@ -586,10 +688,88 @@
 Andy Meets a Hero (1964)
 Andy Goes Abroad (1965)
 Andy Finds a Way (1965)
-Série Benny
-Benny and the Dolphin (1968)
-Benny and the Space Boy (1970)
-Autres romans
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Freda_Hurt</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Freda_Hurt</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Littérature d’enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Série Benny</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Benny and the Dolphin (1968)
+Benny and the Space Boy (1970)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Freda_Hurt</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Freda_Hurt</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Littérature d’enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Fun Next Door (1954)
 Two to Make Friends (1955)
 Norgy in Littleland (1955)
@@ -601,8 +781,43 @@
 The Caravan Cat (1963)
 Crab Island (1965)
 Mike Makes Friends (1966)
-Théâtre
-Morning in Bethlehem: a play of the Nativity for Child Players (1953)</t>
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Freda_Hurt</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Freda_Hurt</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Morning in Bethlehem: a play of the Nativity for Child Players (1953)</t>
         </is>
       </c>
     </row>
